--- a/ask-read-data/wDocument/asuka序列管理の手順書(Excel).xlsx
+++ b/ask-read-data/wDocument/asuka序列管理の手順書(Excel).xlsx
@@ -8,34 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Canh_tv\source\repos\ask-read-data\ask-read-data\wDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FF0B1C-FB03-47A2-8794-B7B6EBE3F82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530FA7E3-AD31-4956-9C2D-66FDB32735B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="手順書" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="データ取込" sheetId="2" r:id="rId2"/>
+    <sheet name="データ取込履歴の表示" sheetId="3" r:id="rId3"/>
+    <sheet name="データ削除" sheetId="4" r:id="rId4"/>
+    <sheet name="エクセル出力" sheetId="5" r:id="rId5"/>
+    <sheet name="ダウンロード履歴の確認" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">エクセル出力!$A$1:$L$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">ダウンロード履歴の確認!$A$1:$L$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">データ削除!$A$1:$K$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">データ取込!$A$1:$K$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">データ取込履歴の表示!$A$1:$K$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">手順書!$A$1:$H$50</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
-  <si>
-    <t>作業手順書</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>作業名</t>
     <rPh sb="0" eb="2">
@@ -103,21 +101,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作成日　　　　　　／　　　　／</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>asuka序列管理</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>参考</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -127,20 +111,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ取込でextファイル選択を押して
-テキストファイルを選択します</t>
-    <rPh sb="3" eb="4">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -166,6 +136,468 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>表示したい日付を選択して</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロップリストで 選択された時間に対して
+アップロードされた最終5回のデータを表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ取込でTextファイル選択を押して
+テキストファイルを選択します</t>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日　　　2022　／　01　／ 18</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクセル出力</t>
+  </si>
+  <si>
+    <t>エクセル出力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロード機能に対してFL00RとFRAMEを分けました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロードしたい日付を入力</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Positionを入力</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パレット連番を入力</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三つ条件を入力し、ダウンロードブータンを押すと、
+正常ならブラウザでファイルが出ます</t>
+    <rPh sb="0" eb="1">
+      <t>ミッ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付を入力し、ダウンロード履歴を確認できます</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FL00Rに対して最終5回のダウンロード履歴を表示します</t>
+    <rPh sb="6" eb="7">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRAMEに対して最終5回のダウンロード履歴を表示します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロード
+履歴の確認</t>
+    <rPh sb="7" eb="9">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ削除</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　.通常の状態: 
+　ダウンロード最終の日付とPositionと
+　パレット連番を表示されました
+　.ダウンロードの状態: 
+　入力の条件が満たすすれば、ブラウザ
+　でファイルが出ます。更に,新しい日付と
+　新しいPositionと新しいパレット連番
+　が更新されるとこ。 
+　入力の条件が満足していない場合: 赤いエラーメッセージが出ます。
+　(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データが　存在していませんのでダウンロードに失敗しました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ取込
+履歴の
+表示</t>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付を選択して、すぐに、アップロードされた最終5回のデータを表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミスがあれば、本日のデータが削除します</t>
+    <rPh sb="7" eb="9">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">正常なら緑文字で結果が出ます: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ファイルのデータがデータベースに保存された</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+ファイルがないと　　　　　　 :    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ファイル内にデータが存在しません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+テキストファイル以外の場合は :　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ファイル形式が間違っているため読み取ることができません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+データ形式が正しくない場合は :(ファイル名と行番号を表示)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ファイル名 + 取り込み中にエラーが発せしました + Line Error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <rPh sb="32" eb="34">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>ハッ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>削除する前に、確認メッセージを出す、
+OKを選択する場合は：本日のデータが削除します
+Cancelを選択する場合は: 取り消します
+本日のデータが存在する場合は：緑文字で結果が出ます：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">本日のデータは削除が完了しました！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>本日のデータが存在しない場合は：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>本日はデータが存在していませんので削除に失敗しました！</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ取込履歴の表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ取込</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロード履歴の確認</t>
+  </si>
+  <si>
+    <t>＾ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ASUKA序列手順書</t>
+    <rPh sb="5" eb="7">
+      <t>ジョレツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +606,7 @@
   <numFmts count="1">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +665,29 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック Medium"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="游ゴシック Medium"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -242,7 +697,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -641,13 +1096,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -655,9 +1223,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -786,9 +1351,6 @@
     <xf numFmtId="5" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,14 +1366,103 @@
     <xf numFmtId="5" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFDFAE9"/>
     </mruColors>
   </colors>
@@ -824,6 +1475,2774 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>594965</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE868F7-CFB6-43F8-A61B-940499F274D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="335280"/>
+          <a:ext cx="5464145" cy="1501139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C700B04-C672-497E-9F2E-90F23EA47076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1783080" y="373380"/>
+          <a:ext cx="1623060" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20488"/>
+            <a:gd name="adj2" fmla="val 248546"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>⓵</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>Text</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>ファイル選択ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14231</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1EC280-33CA-436D-BE06-F9CE25E95AD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="2179321"/>
+          <a:ext cx="5500630" cy="2865120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B73C74F-2354-44CD-AC46-D034D709EB28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1623060" y="3672840"/>
+          <a:ext cx="1943100" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -14561"/>
+            <a:gd name="adj2" fmla="val 33586"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>アップロードした後、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0">
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>ばかりのデータをを表示されます</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矢印: 右 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3648375-A883-4745-872A-086C51493242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3131820" y="1889760"/>
+          <a:ext cx="487680" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F4BB21-5E29-4D63-A1E2-85B06323390A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="723900" y="3192780"/>
+          <a:ext cx="5311140" cy="1592580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A646B2-3468-4A27-BA11-42B34226B8DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3916680" y="815340"/>
+          <a:ext cx="1623060" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -80582"/>
+            <a:gd name="adj2" fmla="val 128981"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>⓶アップロードボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A8453F-5468-4002-9484-C095DC5A0A15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4907280" y="2346960"/>
+          <a:ext cx="1158240" cy="480060"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -14561"/>
+            <a:gd name="adj2" fmla="val 33586"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック 見出し"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>追加された行数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0">
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック 見出し"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック 見出し"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>追加された</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック 見出し"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>時間</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ Ｐゴシック 見出し"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7122426-1457-40E9-856D-34A05FBD2B73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5448300" y="2827020"/>
+          <a:ext cx="38100" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7AF6519-EAB2-40E6-A79F-C82255CB4DA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="2827020"/>
+          <a:ext cx="327660" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14230</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF66958F-EB0F-4CFC-AD70-1A93E825EA8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="335280"/>
+          <a:ext cx="5500630" cy="2865120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>403859</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>518159</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82307765-A648-49A5-BA0D-DF3DAA5CCDF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1623059" y="1828799"/>
+          <a:ext cx="1943100" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -14561"/>
+            <a:gd name="adj2" fmla="val 33586"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>アップロードした後、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0">
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>ばかりのデータをを表示されます</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>548639</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91439</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9562F2FE-2625-413D-A476-373CF659E144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="723899" y="1348739"/>
+          <a:ext cx="5311140" cy="1592580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{952C56C7-C04F-459E-BC20-F9CABB8C714A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3604260" y="571500"/>
+          <a:ext cx="944880" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -39930"/>
+            <a:gd name="adj2" fmla="val 132177"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>⓵日付を選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C956A87E-A1A4-49EC-96C9-27239E1A6335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2354580" y="563880"/>
+          <a:ext cx="1211580" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -299"/>
+            <a:gd name="adj2" fmla="val 138794"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>⓶部番名称を選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C96889-8EFE-4A1E-854E-8C639786094F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="899160" y="457200"/>
+          <a:ext cx="1211580" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6588"/>
+            <a:gd name="adj2" fmla="val 200369"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>⓶取り込み日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14230</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958D7C19-A429-475A-80AA-0FB12596D4A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="335280"/>
+          <a:ext cx="5500630" cy="2865120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD4293D-CE8A-4EA9-8E2E-1C4A3C2ACE85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739140" y="2468880"/>
+          <a:ext cx="1584960" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44118"/>
+            <a:gd name="adj2" fmla="val 222155"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>⓵ミスがあれば、削除ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>29470</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC604FA-7BE4-496A-9368-1A36958CE4AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="3543300"/>
+          <a:ext cx="5500630" cy="2865120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 右 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71DE1998-D76A-4466-81E2-0841671D2EC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3143250" y="3257550"/>
+          <a:ext cx="480060" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>11678</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB040F0C-E706-412F-83A9-81D5D352116E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6880861"/>
+          <a:ext cx="5498078" cy="2164080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F87F7426-1E90-4CCC-AB33-2AAE238F175B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2567940" y="6873240"/>
+          <a:ext cx="1615440" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892B303F-73E5-4F0F-8A46-3C4D015ECE3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3718560" y="6233160"/>
+          <a:ext cx="2324100" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -47301"/>
+            <a:gd name="adj2" fmla="val 110977"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>⓶</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>確認メッセージ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を選択する場合は：本日のデータが削除します</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Cancel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を選択する場合は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>取り消します</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="800" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>93340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71354EF-B0A7-4460-9A5D-FDA8FBB4C668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="693420"/>
+          <a:ext cx="6073140" cy="1746880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBC5B40-B237-4EB0-BF67-2999D4C354D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="350520"/>
+          <a:ext cx="883920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44118"/>
+            <a:gd name="adj2" fmla="val 222155"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>⓵日付を入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1107EC7-172F-41CC-ADCE-EA75220C4C52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3246120" y="350520"/>
+          <a:ext cx="929640" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -43298"/>
+            <a:gd name="adj2" fmla="val 242155"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>⓶</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>Position</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>を入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC0AA65-9EFD-49A3-941B-9B185C34DB3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4274820" y="358140"/>
+          <a:ext cx="929640" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -43298"/>
+            <a:gd name="adj2" fmla="val 242155"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>③パレット連番</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3173</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA9463D4-82B1-4EAB-926B-129A00058554}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594360" y="2857501"/>
+          <a:ext cx="6114413" cy="2796539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841D1D60-27E0-49A2-9667-A1D90367BCCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="487680"/>
+          <a:ext cx="1143000" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -32336"/>
+            <a:gd name="adj2" fmla="val 192155"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>④ダウンロードボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D9AE91-4EC6-40C1-B323-C1E32CAF209E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4716780" y="2857500"/>
+          <a:ext cx="1478280" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC57BD4E-94A9-4830-93D8-126CAC4ADDA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3284220" y="2910840"/>
+          <a:ext cx="1432560" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1784"/>
+            <a:gd name="adj2" fmla="val 50155"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>⑤ブラウザの右隅でファイルが出ます</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矢印: 右 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B4DAD6-191F-4D81-94B3-BEC37FC247C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3528060" y="2506980"/>
+          <a:ext cx="472440" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9090A0A4-47BD-477F-87B4-DC59EF2E615A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="502920"/>
+          <a:ext cx="6096000" cy="2802462"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5CF63FB-9B6C-414D-8FE5-BD9F8EF824DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2446020" y="960120"/>
+          <a:ext cx="883920" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44118"/>
+            <a:gd name="adj2" fmla="val 222155"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>⓵日付を入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61627D1B-43C2-4120-AE53-F014EAB366BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="1356360"/>
+          <a:ext cx="1143000" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -77003"/>
+            <a:gd name="adj2" fmla="val -7845"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>⓶検索ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE20ABF-C97E-4332-80BE-0BAF51E67005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3025140" y="2151380"/>
+          <a:ext cx="1918010" cy="447040"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -14561"/>
+            <a:gd name="adj2" fmla="val 33586"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="9525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>検索ボタンを押すと、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0">
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>ダウンロード履歴をを表示されます</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED48C6C3-6C1D-4815-9C12-D6F3DFE11AB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1417320" y="1760220"/>
+          <a:ext cx="5242560" cy="1356360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1147,440 +4566,699 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="43.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="8.77734375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="62.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="19" customWidth="1"/>
+    <col min="5" max="6" width="30.77734375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="26"/>
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
-        <v>6</v>
+    <row r="2" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="27" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="74"/>
+    </row>
+    <row r="3" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
+      <c r="A7" s="42">
+        <v>1</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="C7" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="6" t="s">
+    <row r="8" spans="1:7" ht="48.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="43"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="30"/>
     </row>
-    <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+    <row r="9" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
+      <c r="A9" s="43"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="30"/>
     </row>
-    <row r="5" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="30"/>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="43">
-        <v>1</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="48.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" spans="1:5" ht="48.6" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="31"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="44"/>
       <c r="B11" s="40"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="31"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="32"/>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="42">
+        <v>2</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="60"/>
+      <c r="F12" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43">
-        <v>2</v>
-      </c>
+    <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
+      <c r="A13" s="43"/>
       <c r="B13" s="39"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="C13" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="31"/>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="43"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="31"/>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="43"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="44"/>
       <c r="B16" s="40"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="31"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="31"/>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="42">
+        <v>3</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="69"/>
+      <c r="F17" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="32"/>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="43"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="43">
-        <v>3</v>
-      </c>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="43"/>
       <c r="B19" s="39"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="31"/>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="44"/>
       <c r="B21" s="40"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="31"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="31"/>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="42">
+        <v>4</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="55"/>
+      <c r="F22" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="31"/>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="43"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="32"/>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="43"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="43">
-        <v>4</v>
-      </c>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="43"/>
       <c r="B25" s="39"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="C25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="31"/>
+    <row r="26" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
+      <c r="A26" s="43"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
+    <row r="27" spans="1:7" ht="103.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="43"/>
       <c r="B27" s="40"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="31"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="31"/>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="42">
+        <v>5</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="53"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="31"/>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="43"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="32"/>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="43"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="43">
-        <v>5</v>
-      </c>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="43"/>
       <c r="B31" s="39"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="31"/>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="43"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="30"/>
     </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="43"/>
       <c r="B33" s="40"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="31"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="31"/>
     </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="31"/>
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="42">
+        <v>5</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="29" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="31"/>
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="43"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="30"/>
     </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="32"/>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="43"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="30"/>
     </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="43"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="1"/>
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="43"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="1"/>
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="47"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="31"/>
     </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="1"/>
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:5" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="E31:E36"/>
+  <mergeCells count="35">
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="D28:E33"/>
+    <mergeCell ref="D34:E39"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D17:E21"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="G34:G39"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D22:E27"/>
+    <mergeCell ref="D7:E11"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D12:E16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F7:F11" location="データ取込!A1" display="データ取込!A1" xr:uid="{E6DDF7C9-FF94-4581-B355-A0891CEA401B}"/>
+    <hyperlink ref="F12:F16" location="データ取込履歴の表示!A1" display="データ取込履歴の表示!A1" xr:uid="{727B9177-3F84-4C42-BACC-6F68C8CF75D1}"/>
+    <hyperlink ref="F17:F21" location="データ削除!A1" display="データ削除!A1" xr:uid="{1BCD0D5F-7B02-4934-B304-087B9C70AEE0}"/>
+    <hyperlink ref="F22:F27" location="エクセル出力!A1" display="エクセル出力" xr:uid="{F62304F3-F9F0-478B-BB81-FE181C2B208A}"/>
+    <hyperlink ref="F28:F33" location="ダウンロード履歴の確認!A1" display="ダウンロード履歴の確認" xr:uid="{4AA9CE40-91F2-425A-A2DB-CC687BAA0067}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE66165A-8676-4423-8B9B-CCCF2194FDD9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="T37"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="37" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567A19C3-69A7-4C1C-93E8-F4EC2CFFC071}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E116B1E2-5315-49DC-83DB-69363D74FA6A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ask-read-data/wDocument/asuka序列管理の手順書(Excel).xlsx
+++ b/ask-read-data/wDocument/asuka序列管理の手順書(Excel).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Canh_tv\source\repos\ask-read-data\ask-read-data\wDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530FA7E3-AD31-4956-9C2D-66FDB32735B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF262585-A316-4EC4-94E0-684F936D5A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>作業名</t>
     <rPh sb="0" eb="2">
@@ -58,16 +58,6 @@
     <t>手順</t>
     <rPh sb="0" eb="2">
       <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業内容</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -98,10 +88,6 @@
   </si>
   <si>
     <t>□</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>asuka序列管理</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -143,30 +129,6 @@
   <si>
     <t>ドロップリストで 選択された時間に対して
 アップロードされた最終5回のデータを表示する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ取込でTextファイル選択を押して
-テキストファイルを選択します</t>
-    <rPh sb="3" eb="4">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成日　　　2022　／　01　／ 18</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -210,23 +172,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>三つ条件を入力し、ダウンロードブータンを押すと、
-正常ならブラウザでファイルが出ます</t>
-    <rPh sb="0" eb="1">
-      <t>ミッ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日付を入力し、ダウンロード履歴を確認できます</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
@@ -269,68 +214,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>　.通常の状態: 
-　ダウンロード最終の日付とPositionと
-　パレット連番を表示されました
-　.ダウンロードの状態: 
-　入力の条件が満たすすれば、ブラウザ
-　でファイルが出ます。更に,新しい日付と
-　新しいPositionと新しいパレット連番
-　が更新されるとこ。 
-　入力の条件が満足していない場合: 赤いエラーメッセージが出ます。
-　(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック Medium"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>データが　存在していませんのでダウンロードに失敗しました</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック Medium"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <rPh sb="20" eb="22">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="169" eb="170">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データ取込
 履歴の
 表示</t>
@@ -350,16 +233,6 @@
   </si>
   <si>
     <t>日付を選択して、すぐに、アップロードされた最終5回のデータを表示する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミスがあれば、本日のデータが削除します</t>
-    <rPh sb="7" eb="9">
-      <t>ホンジツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サクジョ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -488,10 +361,155 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>データ取込履歴の表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ取込</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロード履歴の確認</t>
+  </si>
+  <si>
+    <t>ASUKA序列手順書</t>
+    <rPh sb="5" eb="7">
+      <t>ジョレツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>序列管理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施内容</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日　　2022　／　01　／ 18</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Textファイル選択ボータンを押して
+自分のPCからテキストファイルを選択します</t>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名のフォーマット</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　⓵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓷⓸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部番名称</t>
+    <rPh sb="0" eb="4">
+      <t>ブバンメイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付から</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パレット連番から</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Positionから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロードボタンのタイミング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三つ条件を入力し、ダウンロードブータンを押すと、
+正常ならブラウザの右隅でファイルが出ます</t>
+    <rPh sb="0" eb="1">
+      <t>ミッ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　⓶</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⓶</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>削除する前に、確認メッセージを出す、
+Cancelを選択する場合は: 取り消します
 OKを選択する場合は：本日のデータが削除します
-Cancelを選択する場合は: 取り消します
 本日のデータが存在する場合は：緑文字で結果が出ます：</t>
     </r>
     <r>
@@ -537,22 +555,16 @@
     <rPh sb="15" eb="16">
       <t>ダ</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="26" eb="28">
       <t>センタク</t>
     </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="30" eb="32">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="50" eb="52">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
+    <rPh sb="35" eb="36">
       <t>ト</t>
     </rPh>
-    <rPh sb="61" eb="62">
+    <rPh sb="37" eb="38">
       <t>ケ</t>
     </rPh>
     <rPh sb="66" eb="68">
@@ -567,34 +579,50 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ取込履歴の表示</t>
+    <t>FL00RとFRAMEを分けることができます</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ取込</t>
+    <t>アップロード日にミスがあれば、すべてのデータが削除します</t>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ削除</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダウンロード履歴の確認</t>
-  </si>
-  <si>
-    <t>＾ー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ASUKA序列手順書</t>
-    <rPh sb="5" eb="7">
-      <t>ジョレツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ショ</t>
+    <r>
+      <t>　.通常の状態: 
+　ブラウザ
+　でファイルが出ます。ダウンロード最終の日付とPositionと
+　パレット連番が更新されるとこ。
+　.入力の条件が満足していない場合: 赤いエラーメッセージが出ます。
+　(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データが　存在していませんのでダウンロードに失敗しました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Medium"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="36" eb="38">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>デ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -606,7 +634,7 @@
   <numFmts count="1">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,6 +694,13 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック Medium"/>
@@ -688,6 +723,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1211,11 +1255,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1297,6 +1341,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1306,6 +1374,105 @@
     <xf numFmtId="5" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1324,54 +1491,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1390,68 +1509,11 @@
     <xf numFmtId="5" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1487,8 +1549,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>594965</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>160019</xdr:rowOff>
     </xdr:to>
@@ -1513,8 +1575,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="617220" y="335280"/>
-          <a:ext cx="5464145" cy="1501139"/>
+          <a:off x="617220" y="685800"/>
+          <a:ext cx="5478780" cy="1531619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1532,14 +1594,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1554,8 +1616,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1783080" y="373380"/>
-          <a:ext cx="1623060" cy="289560"/>
+          <a:off x="1783080" y="1038226"/>
+          <a:ext cx="1623060" cy="226694"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1587,7 +1649,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -1600,7 +1662,7 @@
             <a:t>⓵</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -1613,7 +1675,7 @@
             <a:t>Text</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -1681,16 +1743,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>527684</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1705,8 +1767,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1623060" y="3672840"/>
-          <a:ext cx="1943100" cy="403860"/>
+          <a:off x="2356484" y="4200525"/>
+          <a:ext cx="2329815" cy="428624"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1738,7 +1800,84 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック 見出し"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック 見出し"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>アップロードした後、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック 見出し"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック 見出し"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>ばかりのデータがを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ Ｐゴシック 見出し"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テーブルに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック 見出し"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>表示されま</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -1748,46 +1887,7 @@
               <a:latin typeface="+mj-ea"/>
               <a:ea typeface="+mj-ea"/>
             </a:rPr>
-            <a:t>③</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>アップロードした後、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0">
-            <a:ln w="9525">
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>ばかりのデータをを表示されます</a:t>
+            <a:t>す</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1916,8 +2016,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -1938,13 +2038,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3916680" y="815340"/>
-          <a:ext cx="1623060" cy="350520"/>
+          <a:off x="3916680" y="1314450"/>
+          <a:ext cx="1623060" cy="217170"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -80582"/>
-            <a:gd name="adj2" fmla="val 128981"/>
+            <a:gd name="adj1" fmla="val -77648"/>
+            <a:gd name="adj2" fmla="val 185999"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="9525"/>
@@ -1971,7 +2071,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -1990,8 +2090,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -2014,8 +2114,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4907280" y="2346960"/>
-          <a:ext cx="1158240" cy="480060"/>
+          <a:off x="4762500" y="2743200"/>
+          <a:ext cx="1303020" cy="487680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2047,7 +2147,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -2057,9 +2157,9 @@
               <a:latin typeface="ＭＳ Ｐゴシック 見出し"/>
               <a:ea typeface="+mj-ea"/>
             </a:rPr>
-            <a:t>追加された行数</a:t>
+            <a:t>アップロードされた行数</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
             <a:ln w="9525">
               <a:noFill/>
             </a:ln>
@@ -2089,7 +2189,19 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アップロード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2098,10 +2210,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>追加された</a:t>
+            <a:t>された</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -2112,7 +2224,7 @@
             </a:rPr>
             <a:t>時間</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -2127,13 +2239,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>537210</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
@@ -2151,9 +2263,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5448300" y="2827020"/>
-          <a:ext cx="38100" cy="388620"/>
+        <a:xfrm>
+          <a:off x="5414010" y="3230880"/>
+          <a:ext cx="34290" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2181,8 +2293,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>537210</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
@@ -2207,8 +2319,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="2827020"/>
-          <a:ext cx="327660" cy="373380"/>
+          <a:off x="5414010" y="3230880"/>
+          <a:ext cx="400050" cy="384810"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2292,14 +2404,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>403859</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>518159</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>53339</xdr:rowOff>
+      <xdr:rowOff>53338</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2314,8 +2426,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1623059" y="1828799"/>
-          <a:ext cx="1943100" cy="403860"/>
+          <a:off x="1623059" y="2438399"/>
+          <a:ext cx="1943100" cy="358139"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2347,7 +2459,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -2360,7 +2472,7 @@
             <a:t>③</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -2372,7 +2484,7 @@
             </a:rPr>
             <a:t>アップロードした後、</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
             <a:ln w="9525">
               <a:noFill/>
             </a:ln>
@@ -2386,7 +2498,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -2463,13 +2575,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>160019</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2484,13 +2596,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3604260" y="571500"/>
-          <a:ext cx="944880" cy="259080"/>
+          <a:off x="3604260" y="1162050"/>
+          <a:ext cx="944880" cy="198119"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
             <a:gd name="adj1" fmla="val -39930"/>
-            <a:gd name="adj2" fmla="val 132177"/>
+            <a:gd name="adj2" fmla="val 161023"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="9525"/>
@@ -2517,7 +2629,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -2539,13 +2651,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>160019</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2560,13 +2672,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2354580" y="563880"/>
-          <a:ext cx="1211580" cy="266700"/>
+          <a:off x="2354580" y="1162050"/>
+          <a:ext cx="1211580" cy="198119"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -299"/>
-            <a:gd name="adj2" fmla="val 138794"/>
+            <a:gd name="adj1" fmla="val -3444"/>
+            <a:gd name="adj2" fmla="val 167640"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="9525"/>
@@ -2593,7 +2705,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -2614,14 +2726,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>22859</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2636,13 +2748,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="899160" y="457200"/>
-          <a:ext cx="1211580" cy="236220"/>
+          <a:off x="899160" y="1057274"/>
+          <a:ext cx="1211580" cy="165735"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -6588"/>
-            <a:gd name="adj2" fmla="val 200369"/>
+            <a:gd name="adj1" fmla="val -9733"/>
+            <a:gd name="adj2" fmla="val 257840"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="9525"/>
@@ -2669,7 +2781,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -2695,13 +2807,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>14230</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2725,8 +2837,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="335280"/>
-          <a:ext cx="5500630" cy="2865120"/>
+          <a:off x="609600" y="857250"/>
+          <a:ext cx="5500630" cy="2929890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2744,13 +2856,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2766,13 +2878,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="739140" y="2468880"/>
-          <a:ext cx="1584960" cy="205740"/>
+          <a:off x="739140" y="3208020"/>
+          <a:ext cx="1584960" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -44118"/>
-            <a:gd name="adj2" fmla="val 222155"/>
+            <a:gd name="adj1" fmla="val -42315"/>
+            <a:gd name="adj2" fmla="val 135791"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="9525"/>
@@ -2799,7 +2911,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -2816,67 +2928,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>29470</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC604FA-7BE4-496A-9368-1A36958CE4AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="624840" y="3543300"/>
-          <a:ext cx="5500630" cy="2865120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2891,8 +2954,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3143250" y="3257550"/>
-          <a:ext cx="480060" cy="289560"/>
+          <a:off x="3137535" y="3903345"/>
+          <a:ext cx="491490" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2932,14 +2995,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>26671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>11678</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>160021</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2962,8 +3025,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="6880861"/>
-          <a:ext cx="5498078" cy="2164080"/>
+          <a:off x="609600" y="4312921"/>
+          <a:ext cx="5498078" cy="2209800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2981,14 +3044,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3003,8 +3066,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2567940" y="6873240"/>
-          <a:ext cx="1615440" cy="502920"/>
+          <a:off x="2567940" y="4305300"/>
+          <a:ext cx="1615440" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3035,15 +3098,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>575310</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3058,13 +3121,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3718560" y="6233160"/>
-          <a:ext cx="2324100" cy="487680"/>
+          <a:off x="3737610" y="3850005"/>
+          <a:ext cx="2324100" cy="499110"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -47301"/>
-            <a:gd name="adj2" fmla="val 110977"/>
+            <a:gd name="adj1" fmla="val -43612"/>
+            <a:gd name="adj2" fmla="val 91893"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="9525"/>
@@ -3255,7 +3318,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>93340</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3278,8 +3341,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="632460" y="693420"/>
-          <a:ext cx="6073140" cy="1746880"/>
+          <a:off x="632460" y="708660"/>
+          <a:ext cx="6073140" cy="1844040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3319,13 +3382,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="350520"/>
+          <a:off x="1828800" y="358140"/>
           <a:ext cx="883920" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -44118"/>
-            <a:gd name="adj2" fmla="val 222155"/>
+            <a:gd name="adj1" fmla="val -48428"/>
+            <a:gd name="adj2" fmla="val 281366"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="9525"/>
@@ -3352,7 +3415,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -3374,13 +3437,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3395,8 +3458,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3246120" y="350520"/>
-          <a:ext cx="929640" cy="152400"/>
+          <a:off x="3246120" y="371474"/>
+          <a:ext cx="929640" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -3476,13 +3539,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>15239</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3497,8 +3560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4274820" y="358140"/>
-          <a:ext cx="929640" cy="160020"/>
+          <a:off x="4274820" y="371474"/>
+          <a:ext cx="929640" cy="158115"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -3730,15 +3793,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
+      <xdr:colOff>4307</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>26504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:colOff>217667</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>73549</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3753,8 +3816,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3284220" y="2910840"/>
-          <a:ext cx="1432560" cy="381000"/>
+          <a:off x="3052307" y="2842591"/>
+          <a:ext cx="1432560" cy="378349"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -3806,15 +3869,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>20956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3829,8 +3892,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3528060" y="2506980"/>
-          <a:ext cx="472440" cy="289560"/>
+          <a:off x="3439478" y="2591753"/>
+          <a:ext cx="560070" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3861,6 +3924,405 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDAEA5D-5471-4F8F-BC5E-F2853DCAF1CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6362700"/>
+          <a:ext cx="6553200" cy="485776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114304</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>5798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="左大かっこ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8DBEB51-5FB0-47AD-9BA2-E47607602D30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="888726" y="6467063"/>
+          <a:ext cx="146602" cy="476246"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>240200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>6625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="左大かっこ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2157321C-C324-455A-9B4D-2797A501535D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2173774" y="6533738"/>
+          <a:ext cx="159852" cy="369400"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1660</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>164824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>125896</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>13251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="左大かっこ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69129E0E-6A44-4229-BE73-4A2E00B56376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2412312" y="6653007"/>
+          <a:ext cx="179731" cy="124236"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>147435</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>164826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>271671</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>13253</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="左大かっこ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3406EBE-AB89-4F52-A66D-CDA27A61FB13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2558087" y="6653009"/>
+          <a:ext cx="179731" cy="124236"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>392599</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>337930</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>13252</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="左大かっこ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAB04E73-281E-4B4A-93C8-694988DDD6B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3028952" y="6448012"/>
+          <a:ext cx="159026" cy="554931"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3922,16 +4384,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3946,13 +4408,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2446020" y="960120"/>
-          <a:ext cx="883920" cy="144780"/>
+          <a:off x="2350770" y="1988820"/>
+          <a:ext cx="883920" cy="148590"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -44118"/>
-            <a:gd name="adj2" fmla="val 222155"/>
+            <a:gd name="adj1" fmla="val -35497"/>
+            <a:gd name="adj2" fmla="val 145232"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="9525"/>
@@ -3979,7 +4441,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -4076,14 +4538,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66350</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>83819</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4098,8 +4560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3025140" y="2151380"/>
-          <a:ext cx="1918010" cy="447040"/>
+          <a:off x="3025140" y="3152774"/>
+          <a:ext cx="1918010" cy="360045"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -4131,7 +4593,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -4144,7 +4606,7 @@
             <a:t>③</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -4156,7 +4618,7 @@
             </a:rPr>
             <a:t>検索ボタンを押すと、</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="0">
             <a:ln w="9525">
               <a:noFill/>
             </a:ln>
@@ -4170,7 +4632,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="0">
               <a:ln w="9525">
                 <a:noFill/>
               </a:ln>
@@ -4568,7 +5030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4576,14 +5040,15 @@
     <col min="2" max="2" width="11.77734375" style="21" customWidth="1"/>
     <col min="3" max="3" width="62.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" style="19" customWidth="1"/>
-    <col min="5" max="6" width="30.77734375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" style="19" customWidth="1"/>
     <col min="7" max="7" width="8.109375" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="23"/>
@@ -4594,24 +5059,24 @@
     </row>
     <row r="2" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
+      <c r="D2" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="74"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -4619,10 +5084,10 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -4630,10 +5095,10 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="37"/>
+      <c r="A5" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="78"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -4645,407 +5110,409 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="74"/>
+      <c r="F6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>3</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="42">
+      <c r="A7" s="48">
         <v>1</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="29" t="s">
+      <c r="B7" s="51" t="s">
         <v>8</v>
       </c>
+      <c r="C7" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="80"/>
+      <c r="F7" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="48.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="30"/>
+    <row r="8" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="49"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="30"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="30"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="31"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42">
+      <c r="A12" s="48">
         <v>2</v>
       </c>
-      <c r="B12" s="52" t="s">
-        <v>32</v>
+      <c r="B12" s="71" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="55"/>
+      <c r="F12" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="30"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="30"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
-      <c r="B15" s="39"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="30"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="40"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42">
+      <c r="A17" s="48">
         <v>3</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>30</v>
+      <c r="B17" s="51" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="30"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="39"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="30"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="30"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
-      <c r="B21" s="40"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="31"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="42">
+      <c r="A22" s="48">
         <v>4</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>18</v>
+      <c r="B22" s="51" t="s">
+        <v>14</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D22" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="80"/>
+      <c r="F22" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="30"/>
+        <v>16</v>
+      </c>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="30"/>
+        <v>17</v>
+      </c>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="30"/>
+        <v>18</v>
+      </c>
+      <c r="D25" s="81"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="30"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="38"/>
     </row>
-    <row r="27" spans="1:7" ht="103.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="40"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="31"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="39"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42">
+      <c r="A28" s="48">
         <v>5</v>
       </c>
-      <c r="B28" s="52" t="s">
-        <v>29</v>
+      <c r="B28" s="71" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="30"/>
+        <v>22</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="38"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="39"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="30"/>
+        <v>23</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="38"/>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="30"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="38"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="39"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="30"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="38"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
-      <c r="B33" s="40"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="31"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="39"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42">
+      <c r="A34" s="48">
         <v>5</v>
       </c>
-      <c r="B34" s="38"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="29" t="s">
-        <v>8</v>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="37" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
-      <c r="B35" s="39"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="30"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
-      <c r="B36" s="39"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="30"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="38"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="30"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="38"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="43"/>
-      <c r="B38" s="39"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="30"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="38"/>
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="49"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="31"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="39"/>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20"/>
@@ -5106,18 +5573,13 @@
     <row r="55" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="D28:E33"/>
-    <mergeCell ref="D34:E39"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D17:E21"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="F22:F27"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D12:E16"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B16"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
@@ -5132,15 +5594,20 @@
     <mergeCell ref="G22:G27"/>
     <mergeCell ref="G28:G33"/>
     <mergeCell ref="G34:G39"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B16"/>
     <mergeCell ref="D22:E27"/>
     <mergeCell ref="D7:E11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D12:E16"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="F22:F27"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="F34:F39"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="D28:E33"/>
+    <mergeCell ref="D34:E39"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D17:E21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -5152,7 +5619,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5163,7 +5630,9 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -5183,7 +5652,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5201,18 +5670,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="T37"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="37" spans="20:20" x14ac:dyDescent="0.2">
-      <c r="T37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5226,14 +5691,74 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B37:F48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5250,7 +5775,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/ask-read-data/wDocument/asuka序列管理の手順書(Excel).xlsx
+++ b/ask-read-data/wDocument/asuka序列管理の手順書(Excel).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Canh_tv\source\repos\ask-read-data\ask-read-data\wDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF262585-A316-4EC4-94E0-684F936D5A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDAD101-AE6D-4388-9DE9-8CE92ADBC7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,14 +26,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">データ削除!$A$1:$K$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">データ取込!$A$1:$K$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">データ取込履歴の表示!$A$1:$K$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">手順書!$A$1:$H$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">手順書!$A$1:$H$44</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>作業名</t>
     <rPh sb="0" eb="2">
@@ -741,7 +741,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -786,21 +786,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -990,32 +975,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1216,28 +1175,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1259,7 +1196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1273,6 +1210,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1282,34 +1222,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1324,21 +1258,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,7 +1281,7 @@
     <xf numFmtId="5" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1365,37 +1299,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1404,7 +1335,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1413,26 +1344,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="5" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1440,8 +1371,8 @@
     <xf numFmtId="5" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="5" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="5" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1449,70 +1380,52 @@
     <xf numFmtId="5" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="5" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5028,53 +4941,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:E27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="20" customWidth="1"/>
     <col min="3" max="3" width="62.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="36" style="18" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" style="18" customWidth="1"/>
     <col min="7" max="7" width="8.109375" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="31"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
@@ -5084,10 +4997,10 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -5095,10 +5008,10 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="78"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -5115,464 +5028,406 @@
       <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="74"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="48">
+      <c r="A7" s="45">
         <v>1</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="60" t="s">
+      <c r="E7" s="72"/>
+      <c r="F7" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="33" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="38"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="30" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="38"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="52"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="38"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="39"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48">
+      <c r="A12" s="45">
         <v>2</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="64" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="60" t="s">
+      <c r="E12" s="52"/>
+      <c r="F12" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="30" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="38"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="38"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="38"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="39"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48">
+      <c r="A17" s="45">
         <v>3</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="48" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="60" t="s">
+      <c r="E17" s="52"/>
+      <c r="F17" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="38"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="38"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="38"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="39"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48">
+      <c r="A22" s="45">
         <v>4</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="48" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="63" t="s">
+      <c r="E22" s="72"/>
+      <c r="F22" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="38"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="38"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="38"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="30" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="38"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="39"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48">
+      <c r="A28" s="45">
         <v>5</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="64" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="60" t="s">
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="38"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="38"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="38"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="49"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="38"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="37"/>
     </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
-      <c r="B33" s="53"/>
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="39"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="38"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="48">
-        <v>5</v>
-      </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="37" t="s">
-        <v>7</v>
-      </c>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="38"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="49"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="38"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="49"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="38"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="49"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="38"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="39"/>
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="G40" s="18"/>
     </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:7" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="30">
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D12:E16"/>
     <mergeCell ref="A3:B3"/>
@@ -5580,31 +5435,26 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="B7:B11"/>
     <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D34:G34"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="B22:B27"/>
     <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
     <mergeCell ref="G7:G11"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="G22:G27"/>
     <mergeCell ref="G28:G33"/>
-    <mergeCell ref="G34:G39"/>
     <mergeCell ref="D22:E27"/>
     <mergeCell ref="D7:E11"/>
     <mergeCell ref="F7:F11"/>
     <mergeCell ref="F12:F16"/>
     <mergeCell ref="F22:F27"/>
     <mergeCell ref="F28:F33"/>
-    <mergeCell ref="F34:F39"/>
     <mergeCell ref="F17:F21"/>
     <mergeCell ref="G17:G21"/>
     <mergeCell ref="D28:E33"/>
-    <mergeCell ref="D34:E39"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="D17:E21"/>
@@ -5694,13 +5544,13 @@
   <dimension ref="B37:F48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="P12" sqref="P11:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="34" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5711,15 +5561,15 @@
       <c r="D42" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="33" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="35" t="s">
         <v>40</v>
       </c>
       <c r="C44" t="s">
@@ -5727,7 +5577,7 @@
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="35" t="s">
         <v>53</v>
       </c>
       <c r="C45" t="s">
@@ -5735,7 +5585,7 @@
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="35" t="s">
         <v>45</v>
       </c>
       <c r="C46" t="s">
@@ -5743,7 +5593,7 @@
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C47" t="s">
@@ -5751,7 +5601,7 @@
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="35" t="s">
         <v>50</v>
       </c>
       <c r="C48" t="s">

--- a/ask-read-data/wDocument/asuka序列管理の手順書(Excel).xlsx
+++ b/ask-read-data/wDocument/asuka序列管理の手順書(Excel).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Canh_tv\source\repos\ask-read-data\ask-read-data\wDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDAD101-AE6D-4388-9DE9-8CE92ADBC7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C936D94-5742-4731-BA65-3C111FB6E7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,7 +741,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1187,6 +1187,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1196,7 +1237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1299,6 +1340,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,6 +1413,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1326,107 +1466,17 @@
     <xf numFmtId="5" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="5" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="5" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4943,8 +4993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -4984,10 +5034,10 @@
       <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="66"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
@@ -4997,10 +5047,10 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -5008,10 +5058,10 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -5028,10 +5078,10 @@
       <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="66"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="13" t="s">
         <v>19</v>
       </c>
@@ -5040,334 +5090,334 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
+      <c r="A7" s="54">
         <v>1</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="57" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="37"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="37"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="37"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="38"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45">
+      <c r="A12" s="54">
         <v>2</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="57" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="49"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="37"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="37"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="37"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="58"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="38"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45">
+      <c r="A17" s="54">
         <v>3</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="49" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="57" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="57" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="37"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="49"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="37"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="58"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="37"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="58"/>
     </row>
     <row r="21" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="38"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="45">
+      <c r="A22" s="54">
         <v>4</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="60" t="s">
+      <c r="E22" s="61"/>
+      <c r="F22" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="37"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="58"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="37"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="58"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="37"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="58"/>
     </row>
     <row r="26" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="37"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="58"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="50"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="38"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45">
+      <c r="A28" s="54">
         <v>5</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="52" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="57" t="s">
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="37"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="58"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="37"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="58"/>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="37"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="58"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="37"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="58"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="38"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="18"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
@@ -5428,13 +5478,13 @@
     <row r="49" ht="24.9" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D12:E16"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="D28:E33"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D17:E21"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
@@ -5451,13 +5501,13 @@
     <mergeCell ref="F7:F11"/>
     <mergeCell ref="F12:F16"/>
     <mergeCell ref="F22:F27"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="D28:E33"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D17:E21"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D12:E16"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -5481,7 +5531,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5523,7 +5573,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
